--- a/biology/Médecine/Articulation_tarso-métatarsienne/Articulation_tarso-métatarsienne.xlsx
+++ b/biology/Médecine/Articulation_tarso-métatarsienne/Articulation_tarso-métatarsienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_tarso-m%C3%A9tatarsienne</t>
+          <t>Articulation_tarso-métatarsienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les articulations tarso-métatarsiennes[1] sont les trois articulations qui unissent les cinq métatarsiens à la rangée distale du tarse constituée par l'os cuboïde et les trois cunéiformes. L'ensemble de ces trois articulations est également nommé articulation de Lisfranc du nom du chirurgien et gynécologue des XVIIIe et XIXe siècles, Jacques Lisfranc de Saint-Martin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les articulations tarso-métatarsiennes sont les trois articulations qui unissent les cinq métatarsiens à la rangée distale du tarse constituée par l'os cuboïde et les trois cunéiformes. L'ensemble de ces trois articulations est également nommé articulation de Lisfranc du nom du chirurgien et gynécologue des XVIIIe et XIXe siècles, Jacques Lisfranc de Saint-Martin.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_tarso-m%C3%A9tatarsienne</t>
+          <t>Articulation_tarso-métatarsienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois articulations tarso-métatarsiennes sont des articulations synoviales ayant chacune leur propre capsule[Quoi ?].
 La première articulation relie le cunéiforme médial et le premier métatarsien.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Articulation_tarso-m%C3%A9tatarsienne</t>
+          <t>Articulation_tarso-métatarsienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du côté du métatarse, les surfaces articulaires sont constituées par les faces postérieures de la base des métatarsiens.
 La surface articulaire du premier métatarsien est légèrement concave en avant et en dehors en forme de croissant.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Articulation_tarso-m%C3%A9tatarsienne</t>
+          <t>Articulation_tarso-métatarsienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Moyens d'union</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois capsules articulaires s’insèrent au contact des surfaces articulaires. Il n'est pas rare que des communications existent entre les trois cavités articulaires.
 Les capsules sont renforcées par l'ensemble des ligaments tarso-métatarsiens plantaires et dorsaux. Les deux dernières articulations sont également consolidées par les ligaments cunéo-métatarsiens interosseux.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Articulation_tarso-m%C3%A9tatarsienne</t>
+          <t>Articulation_tarso-métatarsienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La deuxième articulation est quasi immobile. Les première et la troisième articulations ont une petite amplitude de flexion - extension et de glissement[Quoi ?].
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Articulation_tarso-m%C3%A9tatarsienne</t>
+          <t>Articulation_tarso-métatarsienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une luxation de cet ensemble articulaire se nomme entorse de Lisfranc.
 </t>
